--- a/Informe Diario/vacios.xlsx
+++ b/Informe Diario/vacios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>CONSECUTIVO</t>
   </si>
@@ -299,259 +299,613 @@
     <t>Path</t>
   </si>
   <si>
-    <t>VC1575</t>
+    <t>VC1681</t>
+  </si>
+  <si>
+    <t>GERENCIAMIENTO Y APROBACIóN</t>
+  </si>
+  <si>
+    <t>02/06/2024 19:24:49</t>
+  </si>
+  <si>
+    <t>ENTRAPETROL ENTRAPETROL</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>FVN737</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>RENTA FIJA OFS</t>
+  </si>
+  <si>
+    <t>DOMESTIC</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>PLATO/ HOTEL  STAR PLAZA</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA/ HOTEL BARRANCABERMEJA</t>
+  </si>
+  <si>
+    <t>2024-02-07 9:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-07 18:30:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para quedar disponible en Barrancabermeja</t>
+  </si>
+  <si>
+    <t>VC1680</t>
+  </si>
+  <si>
+    <t>02/06/2024 19:15:25</t>
+  </si>
+  <si>
+    <t>LHT229</t>
+  </si>
+  <si>
+    <t>OIBA/ HOTEL OIBA</t>
+  </si>
+  <si>
+    <t>FUNZA/ HOTEL SPARTA</t>
+  </si>
+  <si>
+    <t>2024-02-07 8:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-07 14:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para quedar disponible en Bogotá</t>
+  </si>
+  <si>
+    <t>VC1679</t>
+  </si>
+  <si>
+    <t>02/06/2024 19:05:17</t>
+  </si>
+  <si>
+    <t>SERGIO VILLANUEVA</t>
+  </si>
+  <si>
+    <t>FVQ496</t>
+  </si>
+  <si>
+    <t>CHIPAQUE/HOTEL CHICAQUE</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO/HOTEL .COM</t>
+  </si>
+  <si>
+    <t>2024-02-07 5:31:00</t>
+  </si>
+  <si>
+    <t>2024-02-07 7:31:00</t>
+  </si>
+  <si>
+    <t>GS14077</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO CUMPLIR GS</t>
+  </si>
+  <si>
+    <t>VC1678</t>
   </si>
   <si>
     <t>FIN DE MOVIMIENTO VACíO</t>
   </si>
   <si>
-    <t>01/14/2024 14:10:36</t>
-  </si>
-  <si>
-    <t>ENTRAPETROL ENTRAPETROL</t>
-  </si>
-  <si>
-    <t>Feb-24</t>
+    <t>02/06/2024 14:57:19</t>
+  </si>
+  <si>
+    <t>FUNZA/ CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO/ HOTEL PUNTO COM</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:15:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 19:15:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir servicio mañana en Villavicencio</t>
+  </si>
+  <si>
+    <t>VC1677</t>
+  </si>
+  <si>
+    <t>02/06/2024 12:15:51</t>
+  </si>
+  <si>
+    <t>FLORIDABLANCA/ HOTEL FLORIDABLANCA</t>
+  </si>
+  <si>
+    <t>BARBOSA/ HOTEL BARBOSA</t>
+  </si>
+  <si>
+    <t>2024-02-06 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 18:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para llegar a Bogotá el día de mañana</t>
+  </si>
+  <si>
+    <t>VC1676</t>
+  </si>
+  <si>
+    <t>02/06/2024 11:40:21</t>
+  </si>
+  <si>
+    <t>MONTERíA/ HOTEL NH</t>
+  </si>
+  <si>
+    <t>BOSCONIA/ HOTEL BOSCONIA</t>
+  </si>
+  <si>
+    <t>2024-02-06 12:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para llegar a barrancabermeja el día de mañana</t>
+  </si>
+  <si>
+    <t>VC1675</t>
+  </si>
+  <si>
+    <t>02/06/2024 09:24:40</t>
+  </si>
+  <si>
+    <t>FVQ494</t>
+  </si>
+  <si>
+    <t>FUNDACIóN/ HOTEL SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>SANTA MARTA/ HOTEL SANTANDEREANO</t>
+  </si>
+  <si>
+    <t>2024-02-06 10:30:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 14:30:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir cita de mantenimiento</t>
+  </si>
+  <si>
+    <t>VC1674</t>
+  </si>
+  <si>
+    <t>02/06/2024 09:24:14</t>
+  </si>
+  <si>
+    <t>LHT624</t>
+  </si>
+  <si>
+    <t>SANTA MARTA/ HOTEL PALMERAS</t>
+  </si>
+  <si>
+    <t>GS14032</t>
+  </si>
+  <si>
+    <t>Movimiento vacío para cumplir servicio en Fundación</t>
+  </si>
+  <si>
+    <t>VC1673</t>
+  </si>
+  <si>
+    <t>CANCELAR VIAJE</t>
+  </si>
+  <si>
+    <t>02/06/2024 09:06:42</t>
+  </si>
+  <si>
+    <t>FUNDACIóN/ HOTEL DON MIGUEL</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir cita de mantenimiento preventivo</t>
+  </si>
+  <si>
+    <t>VC1672</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:48:55</t>
+  </si>
+  <si>
+    <t>FVQ470</t>
+  </si>
+  <si>
+    <t>ACACIAS/HOTEL RESORT 1</t>
+  </si>
+  <si>
+    <t>OASIS/ZONA CENTRAL</t>
+  </si>
+  <si>
+    <t>2024-02-06 5:31:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:31:00</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACÍO</t>
+  </si>
+  <si>
+    <t>VC1671</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:44:47</t>
+  </si>
+  <si>
+    <t>FVQ486</t>
+  </si>
+  <si>
+    <t>CASTILLA LA NUEVA/HOTEL LA NUEVA</t>
+  </si>
+  <si>
+    <t>EL OASIS/ZONA CENTRAL</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:30:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO</t>
+  </si>
+  <si>
+    <t>VC1670</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:40:18</t>
+  </si>
+  <si>
+    <t>FVR348</t>
+  </si>
+  <si>
+    <t>2024-02-06 5:32:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 16:00:00</t>
+  </si>
+  <si>
+    <t>VC1669</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:35:39</t>
+  </si>
+  <si>
+    <t>LHV946</t>
+  </si>
+  <si>
+    <t>YOPAL/HOTEL DENVER</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN/HOTEL COLTAN</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:34:00</t>
+  </si>
+  <si>
+    <t>VC1668</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:33:01</t>
+  </si>
+  <si>
+    <t>LHV956</t>
+  </si>
+  <si>
+    <t>VC1667</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:52:24</t>
+  </si>
+  <si>
+    <t>VILLANUEVA/HOTEL COLTAN</t>
+  </si>
+  <si>
+    <t>2024-02-06 8:00:00</t>
+  </si>
+  <si>
+    <t>VC1666</t>
+  </si>
+  <si>
+    <t>02/05/2024 18:49:58</t>
+  </si>
+  <si>
+    <t>2024-02-06 7:48:00</t>
+  </si>
+  <si>
+    <t>VC1665</t>
+  </si>
+  <si>
+    <t>02/05/2024 13:52:27</t>
+  </si>
+  <si>
+    <t>FVR346</t>
+  </si>
+  <si>
+    <t>DUITAMA/ HOTEL OLIMPICA</t>
+  </si>
+  <si>
+    <t>ZIPAQUIRá / HOTEL ZIPAQUIRá</t>
+  </si>
+  <si>
+    <t>2024-02-05 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-05 18:00:00</t>
+  </si>
+  <si>
+    <t>VC1664</t>
+  </si>
+  <si>
+    <t>02/05/2024 13:46:40</t>
+  </si>
+  <si>
+    <t>FVQ473</t>
+  </si>
+  <si>
+    <t>SAN MARTIN/ SAN LUIS SANO</t>
+  </si>
+  <si>
+    <t>AGUACHICA/ HOTEL AGUACHICA</t>
+  </si>
+  <si>
+    <t>2024-02-05 16:00:00</t>
+  </si>
+  <si>
+    <t>GS14051</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir servicio en Aguachica</t>
+  </si>
+  <si>
+    <t>VC1663</t>
+  </si>
+  <si>
+    <t>02/05/2024 13:25:25</t>
   </si>
   <si>
     <t>FVS297</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>VACIO</t>
-  </si>
-  <si>
-    <t>RENTA FIJA OFS</t>
-  </si>
-  <si>
-    <t>DOMESTIC</t>
-  </si>
-  <si>
-    <t>LIGHT</t>
-  </si>
-  <si>
-    <t>YOPAL/ CALLE 27 CON CARRERA 26</t>
-  </si>
-  <si>
-    <t>VILLANUEVA/ HOTEL VILLANUEVA</t>
-  </si>
-  <si>
-    <t>2024-01-14 15:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-14 18:00:00</t>
-  </si>
-  <si>
-    <t>GS13614</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en villanueva</t>
-  </si>
-  <si>
-    <t>VC1574</t>
-  </si>
-  <si>
-    <t>CANCELAR VIAJE</t>
-  </si>
-  <si>
-    <t>01/13/2024 11:43:05</t>
-  </si>
-  <si>
-    <t>LHV956</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ HOTEL PUNTO COM</t>
-  </si>
-  <si>
-    <t>BOGOTá/ SUBA</t>
-  </si>
-  <si>
-    <t>2024-01-13 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-13 19:00:00</t>
-  </si>
-  <si>
-    <t>GS13598</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en Bogotá el día de mañana</t>
-  </si>
-  <si>
-    <t>VC1573</t>
-  </si>
-  <si>
-    <t>01/12/2024 16:38:19</t>
-  </si>
-  <si>
-    <t>SERGIO VILLANUEVA</t>
-  </si>
-  <si>
-    <t>FVQ496</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/BARRIO LA PAZ</t>
-  </si>
-  <si>
-    <t>VILLANUEVA/HOTEL DENVER</t>
-  </si>
-  <si>
-    <t>2024-01-12 16:45:00</t>
-  </si>
-  <si>
-    <t>2024-01-12 19:30:00</t>
-  </si>
-  <si>
-    <t>GS13590</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO EN VACIO</t>
-  </si>
-  <si>
-    <t>VC1572</t>
-  </si>
-  <si>
-    <t>01/12/2024 11:16:35</t>
+    <t>2024-02-05 13:45:00</t>
+  </si>
+  <si>
+    <t>2024-02-05 18:29:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO FORTALECER BASE</t>
+  </si>
+  <si>
+    <t>VC1662</t>
+  </si>
+  <si>
+    <t>02/04/2024 16:46:09</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA/ BARRIO LA ESTANCIA</t>
+  </si>
+  <si>
+    <t>BUCARAMANGA/AEROPUERTO</t>
+  </si>
+  <si>
+    <t>2024-02-05 5:31:00</t>
+  </si>
+  <si>
+    <t>2024-02-05 7:20:00</t>
+  </si>
+  <si>
+    <t>GS14046</t>
+  </si>
+  <si>
+    <t>VC1661</t>
+  </si>
+  <si>
+    <t>02/04/2024 16:34:49</t>
   </si>
   <si>
     <t>FVR349</t>
   </si>
   <si>
-    <t>PUERTO GAITAN/HOTEL VILLAZAIRA</t>
-  </si>
-  <si>
-    <t>2024-01-12 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-12 16:12:00</t>
-  </si>
-  <si>
-    <t>GS13569</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO EN VACIO CUMPLIR GS</t>
-  </si>
-  <si>
-    <t>VC1571</t>
-  </si>
-  <si>
-    <t>01/12/2024 10:46:22</t>
-  </si>
-  <si>
-    <t>FVQ473</t>
-  </si>
-  <si>
-    <t>PUERTO WICHES/HOTEL WILCHISTOCK</t>
-  </si>
-  <si>
-    <t>BARRANCABERMEJA/TALLER</t>
-  </si>
-  <si>
-    <t>2024-01-12 11:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-12 13:00:00</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO En VACIO ESPERAR MANTENIMIENTO.</t>
-  </si>
-  <si>
-    <t>VC1570</t>
-  </si>
-  <si>
-    <t>01/12/2024 08:49:55</t>
-  </si>
-  <si>
-    <t>PUERTO WILCHES/HOTEL WILCHESTOCK</t>
-  </si>
-  <si>
-    <t>BARRANCABERMEJA/AEROPUERTO</t>
-  </si>
-  <si>
-    <t>2024-01-12 14:00:00</t>
-  </si>
-  <si>
-    <t>GS13498</t>
-  </si>
-  <si>
-    <t>VC1569</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:42:32</t>
-  </si>
-  <si>
-    <t>Jan-24</t>
-  </si>
-  <si>
-    <t>FVQ470</t>
-  </si>
-  <si>
-    <t>YOPAL/ HOTEL DENVER</t>
-  </si>
-  <si>
-    <t>VILLANUEVA/ HOTEL COLTAN</t>
-  </si>
-  <si>
-    <t>2024-01-11 11:30:00</t>
-  </si>
-  <si>
-    <t>2024-01-11 14:30:00</t>
-  </si>
-  <si>
-    <t>GS13545</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir el día de mañana en villanueva</t>
-  </si>
-  <si>
-    <t>VC1568</t>
-  </si>
-  <si>
-    <t>01/11/2024 10:11:12</t>
-  </si>
-  <si>
-    <t>FVN739</t>
-  </si>
-  <si>
-    <t>CASTILLA LA NUEVA/ HOTEL BLANQUITA</t>
-  </si>
-  <si>
-    <t>2024-01-11 11:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-11 15:00:00</t>
-  </si>
-  <si>
-    <t>GS13538</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en villanueva el día de mañana</t>
-  </si>
-  <si>
-    <t>VC1567</t>
-  </si>
-  <si>
-    <t>01/10/2024 16:56:05</t>
-  </si>
-  <si>
-    <t>YOPAL/ HOTEL DEMBER</t>
-  </si>
-  <si>
-    <t>TAURAMENA/ HOTEL TAURAMENA</t>
-  </si>
-  <si>
-    <t>2024-01-10 17:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-10 19:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir en tauramena</t>
+    <t>ACACIAS/HOTEL ACACIAS</t>
+  </si>
+  <si>
+    <t>2024-02-04 17:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-04 18:30:00</t>
+  </si>
+  <si>
+    <t>GS14048</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACÍO CUMPLIR GS</t>
+  </si>
+  <si>
+    <t>VC1660</t>
+  </si>
+  <si>
+    <t>02/03/2024 10:56:34</t>
+  </si>
+  <si>
+    <t>SANTA MARTA/ZONA CENTRO</t>
+  </si>
+  <si>
+    <t>FUNDACION/HOTEL FUNDACION</t>
+  </si>
+  <si>
+    <t>2024-02-03 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-03 15:00:00</t>
+  </si>
+  <si>
+    <t>VC1659</t>
+  </si>
+  <si>
+    <t>02/03/2024 10:04:46</t>
+  </si>
+  <si>
+    <t>FVQ495</t>
+  </si>
+  <si>
+    <t>DUITAMA/HOTEL DUI INN</t>
+  </si>
+  <si>
+    <t>BOGOTA/BOSA</t>
+  </si>
+  <si>
+    <t>2024-02-03 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-03 14:50:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO A BASE</t>
+  </si>
+  <si>
+    <t>VC1658</t>
+  </si>
+  <si>
+    <t>02/02/2024 11:22:25</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN/HOTEL COLTA</t>
+  </si>
+  <si>
+    <t>2024-02-02 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 15:45:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO FORTALECER BASE VILLAO</t>
+  </si>
+  <si>
+    <t>VC1657</t>
+  </si>
+  <si>
+    <t>CANCELAR VIAJE.</t>
+  </si>
+  <si>
+    <t>02/02/2024 10:30:19</t>
+  </si>
+  <si>
+    <t>FVS299</t>
+  </si>
+  <si>
+    <t>CHIPAQUE/ HOTEL CHIPAQUE</t>
+  </si>
+  <si>
+    <t>BOGOTá/ PEAJE EL BOQUERóN</t>
+  </si>
+  <si>
+    <t>2024-02-05 7:30:00</t>
+  </si>
+  <si>
+    <t>2024-02-05 9:30:00</t>
+  </si>
+  <si>
+    <t>GS13988</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para recoger personal en el boquerón y seguir con el servicio a Pureto Gaitan</t>
+  </si>
+  <si>
+    <t>VC1656</t>
+  </si>
+  <si>
+    <t>02/02/2024 10:26:20</t>
+  </si>
+  <si>
+    <t>BOGOTá/ YOMAZA</t>
+  </si>
+  <si>
+    <t>2024-02-04 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-04 15:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para quedar fuera de bogotá y el día lunes poder cumplir servicio sin problema</t>
+  </si>
+  <si>
+    <t>VC1655</t>
+  </si>
+  <si>
+    <t>02/02/2024 10:02:09</t>
+  </si>
+  <si>
+    <t>2024-02-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:45:00</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO SERVICIO VILLANUEVA/ACACIAS</t>
+  </si>
+  <si>
+    <t>VC1654</t>
+  </si>
+  <si>
+    <t>02/01/2024 17:09:08</t>
+  </si>
+  <si>
+    <t>VILLETA/HOTEL GYN</t>
+  </si>
+  <si>
+    <t>BOGOTA/ZONA NORTE</t>
+  </si>
+  <si>
+    <t>2024-02-02 6:45:00</t>
+  </si>
+  <si>
+    <t>2024-02-03 8:44:00</t>
+  </si>
+  <si>
+    <t>GS13982</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO CUMPLIR SERVICIO</t>
+  </si>
+  <si>
+    <t>VC1653</t>
+  </si>
+  <si>
+    <t>02/01/2024 14:21:19</t>
+  </si>
+  <si>
+    <t>LA DORADA/ HOTEL DORADA</t>
+  </si>
+  <si>
+    <t>FUNZA/ HOTEL ORQUIDEA</t>
+  </si>
+  <si>
+    <t>2024-02-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 22:12:00</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1256,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:FZ10"/>
+  <dimension ref="A1:FZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +1265,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -931,8 +1285,8 @@
     <col min="19" max="19" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="41.132813" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="45.845947" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="26.993408" bestFit="true" customWidth="true" style="0"/>
@@ -961,8 +1315,8 @@
     <col min="49" max="49" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="50" max="50" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="51" max="51" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="85.979004" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="116.685791" bestFit="true" customWidth="true" style="0"/>
     <col min="54" max="54" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="55" max="55" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="56" max="56" width="22.280273" bestFit="true" customWidth="true" style="0"/>
@@ -1403,10 +1757,10 @@
         <v>104</v>
       </c>
       <c r="S2">
-        <v>641713</v>
+        <v>526576</v>
       </c>
       <c r="T2">
-        <v>1900097893</v>
+        <v>1900025173</v>
       </c>
       <c r="U2" t="s">
         <v>97</v>
@@ -1417,9 +1771,6 @@
       <c r="W2" t="s">
         <v>106</v>
       </c>
-      <c r="X2">
-        <v>141.57</v>
-      </c>
       <c r="Y2" t="s">
         <v>96</v>
       </c>
@@ -1432,28 +1783,31 @@
       <c r="AB2">
         <v>600000</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
         <v>109</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:182">
       <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
       </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
         <v>100</v>
@@ -1471,57 +1825,57 @@
         <v>104</v>
       </c>
       <c r="S3">
-        <v>699971</v>
+        <v>527051</v>
       </c>
       <c r="T3">
-        <v>1900065959</v>
+        <v>1900022149</v>
       </c>
       <c r="U3" t="s">
         <v>97</v>
       </c>
       <c r="V3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" t="s">
         <v>115</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>116</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>118</v>
       </c>
       <c r="AB3">
         <v>600000</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>119</v>
+      <c r="AZ3">
+        <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:182">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
         <v>100</v>
@@ -1539,60 +1893,57 @@
         <v>104</v>
       </c>
       <c r="S4">
-        <v>527758</v>
+        <v>702180</v>
       </c>
       <c r="T4">
-        <v>1900077787</v>
+        <v>1900100496</v>
       </c>
       <c r="U4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" t="s">
         <v>123</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" t="s">
         <v>125</v>
-      </c>
-      <c r="W4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X4">
-        <v>104.38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>128</v>
       </c>
       <c r="AB4">
         <v>600000</v>
       </c>
       <c r="AZ4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:182">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
         <v>100</v>
@@ -1610,60 +1961,60 @@
         <v>104</v>
       </c>
       <c r="S5">
-        <v>556212</v>
+        <v>702180</v>
       </c>
       <c r="T5">
-        <v>1900079429</v>
+        <v>1900069315</v>
       </c>
       <c r="U5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="V5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5">
+        <v>52.77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA5" t="s">
         <v>134</v>
-      </c>
-      <c r="W5" t="s">
-        <v>126</v>
-      </c>
-      <c r="X5">
-        <v>200.93</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>136</v>
       </c>
       <c r="AB5">
         <v>600000</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>137</v>
+      <c r="AZ5">
+        <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:182">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
         <v>100</v>
@@ -1681,54 +2032,60 @@
         <v>104</v>
       </c>
       <c r="S6">
-        <v>689142</v>
+        <v>527051</v>
       </c>
       <c r="T6">
-        <v>1900099499</v>
+        <v>1900022149</v>
       </c>
       <c r="U6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="V6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W6" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="X6">
+        <v>154.61</v>
       </c>
       <c r="Y6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" t="s">
         <v>140</v>
       </c>
-      <c r="Z6" t="s">
-        <v>144</v>
-      </c>
       <c r="AA6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AB6">
         <v>600000</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>146</v>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:182">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>100</v>
@@ -1746,57 +2103,60 @@
         <v>104</v>
       </c>
       <c r="S7">
-        <v>689142</v>
+        <v>526576</v>
       </c>
       <c r="T7">
-        <v>1900099499</v>
+        <v>1900025173</v>
       </c>
       <c r="U7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="W7" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="X7">
+        <v>225.98</v>
       </c>
       <c r="Y7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Z7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AA7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AB7">
         <v>600000</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>153</v>
+      <c r="AZ7">
+        <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:182">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J8" t="s">
         <v>100</v>
@@ -1814,51 +2174,51 @@
         <v>104</v>
       </c>
       <c r="S8">
-        <v>702180</v>
+        <v>526572</v>
       </c>
       <c r="T8">
-        <v>1900100496</v>
+        <v>3123708924</v>
       </c>
       <c r="U8" t="s">
         <v>97</v>
       </c>
       <c r="V8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="X8">
-        <v>142.53</v>
+        <v>91.5</v>
       </c>
       <c r="Y8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA8" t="s">
         <v>155</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>161</v>
       </c>
       <c r="AB8">
         <v>600000</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>162</v>
+      <c r="AZ8">
+        <v>0</v>
       </c>
       <c r="BA8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:182">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -1867,7 +2227,7 @@
         <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
         <v>100</v>
@@ -1885,57 +2245,57 @@
         <v>104</v>
       </c>
       <c r="S9">
-        <v>775961</v>
+        <v>528217</v>
       </c>
       <c r="T9">
-        <v>1900103110</v>
+        <v>1900076427</v>
       </c>
       <c r="U9" t="s">
         <v>97</v>
       </c>
       <c r="V9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="X9">
-        <v>1.49</v>
+        <v>122.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Z9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AA9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AB9">
         <v>600000</v>
       </c>
       <c r="AZ9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="BA9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:182">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="J10" t="s">
         <v>100</v>
@@ -1953,28 +2313,28 @@
         <v>104</v>
       </c>
       <c r="S10">
-        <v>689136</v>
+        <v>528217</v>
       </c>
       <c r="T10">
-        <v>1900099482</v>
+        <v>1900076427</v>
       </c>
       <c r="U10" t="s">
         <v>97</v>
       </c>
       <c r="V10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="W10" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Y10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Z10" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="AA10" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AB10">
         <v>600000</v>
@@ -1983,7 +2343,1406 @@
         <v>0</v>
       </c>
       <c r="BA10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:182">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11">
+        <v>642798</v>
+      </c>
+      <c r="T11">
+        <v>1900097892</v>
+      </c>
+      <c r="U11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" t="s">
+        <v>172</v>
+      </c>
+      <c r="X11">
+        <v>219.89</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB11">
+        <v>600000</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:182">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
         <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12">
+        <v>526817</v>
+      </c>
+      <c r="T12">
+        <v>1900069315</v>
+      </c>
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" t="s">
+        <v>181</v>
+      </c>
+      <c r="X12">
+        <v>242.82</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB12">
+        <v>600000</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:182">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13">
+        <v>642501</v>
+      </c>
+      <c r="T13">
+        <v>1900074948</v>
+      </c>
+      <c r="U13" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" t="s">
+        <v>181</v>
+      </c>
+      <c r="X13">
+        <v>30.99</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB13">
+        <v>600000</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:182">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14">
+        <v>537872</v>
+      </c>
+      <c r="T14">
+        <v>1900048161</v>
+      </c>
+      <c r="U14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" t="s">
+        <v>192</v>
+      </c>
+      <c r="W14" t="s">
+        <v>193</v>
+      </c>
+      <c r="X14">
+        <v>357.57</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB14">
+        <v>600000</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:182">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15">
+        <v>699971</v>
+      </c>
+      <c r="T15">
+        <v>1900065959</v>
+      </c>
+      <c r="U15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" t="s">
+        <v>192</v>
+      </c>
+      <c r="W15" t="s">
+        <v>193</v>
+      </c>
+      <c r="X15">
+        <v>356.12</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB15">
+        <v>600000</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:182">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16">
+        <v>537872</v>
+      </c>
+      <c r="T16">
+        <v>1900048161</v>
+      </c>
+      <c r="U16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" t="s">
+        <v>192</v>
+      </c>
+      <c r="W16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB16">
+        <v>600000</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:182">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17">
+        <v>699971</v>
+      </c>
+      <c r="T17">
+        <v>1900065959</v>
+      </c>
+      <c r="U17" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" t="s">
+        <v>192</v>
+      </c>
+      <c r="W17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17">
+        <v>600000</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:182">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18">
+        <v>689136</v>
+      </c>
+      <c r="T18">
+        <v>1900099482</v>
+      </c>
+      <c r="U18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" t="s">
+        <v>208</v>
+      </c>
+      <c r="W18" t="s">
+        <v>209</v>
+      </c>
+      <c r="X18">
+        <v>170.15</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB18">
+        <v>600000</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:182">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19">
+        <v>526865</v>
+      </c>
+      <c r="T19">
+        <v>1900084573</v>
+      </c>
+      <c r="U19" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" t="s">
+        <v>215</v>
+      </c>
+      <c r="W19" t="s">
+        <v>216</v>
+      </c>
+      <c r="X19">
+        <v>39.82</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB19">
+        <v>600000</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:182">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20">
+        <v>527758</v>
+      </c>
+      <c r="T20">
+        <v>1900077787</v>
+      </c>
+      <c r="U20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" t="s">
+        <v>192</v>
+      </c>
+      <c r="W20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X20">
+        <v>255.97</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB20">
+        <v>600000</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:182">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21">
+        <v>527051</v>
+      </c>
+      <c r="T21">
+        <v>1900022149</v>
+      </c>
+      <c r="U21" t="s">
+        <v>120</v>
+      </c>
+      <c r="V21" t="s">
+        <v>228</v>
+      </c>
+      <c r="W21" t="s">
+        <v>229</v>
+      </c>
+      <c r="X21">
+        <v>101.46</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB21">
+        <v>600000</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:182">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" t="s">
+        <v>104</v>
+      </c>
+      <c r="S22">
+        <v>689142</v>
+      </c>
+      <c r="T22">
+        <v>1900099499</v>
+      </c>
+      <c r="U22" t="s">
+        <v>120</v>
+      </c>
+      <c r="V22" t="s">
+        <v>236</v>
+      </c>
+      <c r="W22" t="s">
+        <v>123</v>
+      </c>
+      <c r="X22">
+        <v>29.46</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB22">
+        <v>600000</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:182">
+      <c r="A23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" t="s">
+        <v>104</v>
+      </c>
+      <c r="S23">
+        <v>526572</v>
+      </c>
+      <c r="T23">
+        <v>1900022660</v>
+      </c>
+      <c r="U23" t="s">
+        <v>120</v>
+      </c>
+      <c r="V23" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" t="s">
+        <v>244</v>
+      </c>
+      <c r="X23">
+        <v>1705.73</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB23">
+        <v>600000</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:182">
+      <c r="A24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S24">
+        <v>768047</v>
+      </c>
+      <c r="T24">
+        <v>1900102775</v>
+      </c>
+      <c r="U24" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24" t="s">
+        <v>250</v>
+      </c>
+      <c r="W24" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB24">
+        <v>600000</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:182">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" t="s">
+        <v>104</v>
+      </c>
+      <c r="S25">
+        <v>642798</v>
+      </c>
+      <c r="T25">
+        <v>1900097892</v>
+      </c>
+      <c r="U25" t="s">
+        <v>120</v>
+      </c>
+      <c r="V25" t="s">
+        <v>257</v>
+      </c>
+      <c r="W25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X25">
+        <v>190.56</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB25">
+        <v>600000</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:182">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>264</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26">
+        <v>526845</v>
+      </c>
+      <c r="T26">
+        <v>1900060816</v>
+      </c>
+      <c r="U26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V26" t="s">
+        <v>265</v>
+      </c>
+      <c r="W26" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB26">
+        <v>600000</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:182">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" t="s">
+        <v>104</v>
+      </c>
+      <c r="S27">
+        <v>526845</v>
+      </c>
+      <c r="T27">
+        <v>1900060816</v>
+      </c>
+      <c r="U27" t="s">
+        <v>97</v>
+      </c>
+      <c r="V27" t="s">
+        <v>273</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB27">
+        <v>600000</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:182">
+      <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R28" t="s">
+        <v>104</v>
+      </c>
+      <c r="S28">
+        <v>689142</v>
+      </c>
+      <c r="T28">
+        <v>1900099499</v>
+      </c>
+      <c r="U28" t="s">
+        <v>120</v>
+      </c>
+      <c r="V28" t="s">
+        <v>123</v>
+      </c>
+      <c r="W28" t="s">
+        <v>200</v>
+      </c>
+      <c r="X28">
+        <v>122.69</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB28">
+        <v>600000</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>281</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:182">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="R29" t="s">
+        <v>104</v>
+      </c>
+      <c r="S29">
+        <v>470693</v>
+      </c>
+      <c r="T29">
+        <v>1900074952</v>
+      </c>
+      <c r="U29" t="s">
+        <v>120</v>
+      </c>
+      <c r="V29" t="s">
+        <v>285</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB29">
+        <v>600000</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:182">
+      <c r="A30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" t="s">
+        <v>104</v>
+      </c>
+      <c r="S30">
+        <v>470693</v>
+      </c>
+      <c r="T30">
+        <v>1900069315</v>
+      </c>
+      <c r="U30" t="s">
+        <v>97</v>
+      </c>
+      <c r="V30" t="s">
+        <v>293</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30">
+        <v>97.81</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB30">
+        <v>600000</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Informe Diario/vacios.xlsx
+++ b/Informe Diario/vacios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>CONSECUTIVO</t>
   </si>
@@ -299,18 +299,21 @@
     <t>Path</t>
   </si>
   <si>
-    <t>VC1981</t>
+    <t>VC2021</t>
   </si>
   <si>
     <t>MOVIMIENTO VACíO</t>
   </si>
   <si>
-    <t>04/15/2024 08:20:45</t>
+    <t>04/27/2024 13:20:50</t>
   </si>
   <si>
     <t>COSMOTRANS COORDINADOR</t>
   </si>
   <si>
+    <t>TAR541</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
@@ -329,382 +332,253 @@
     <t>LIGHT</t>
   </si>
   <si>
-    <t>BOGOTA CRA 21 65 37</t>
-  </si>
-  <si>
-    <t>POZO CHAPARRITO</t>
-  </si>
-  <si>
-    <t>2024-04-15 9:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-15 17:00:00</t>
-  </si>
-  <si>
-    <t>GS15429</t>
-  </si>
-  <si>
-    <t>LEGALIZACION SERVICIO DIA 14 DE ABRIL</t>
-  </si>
-  <si>
-    <t>VC1980</t>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO VILLA JOHANA</t>
+  </si>
+  <si>
+    <t>2024-04-27 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-27 22:00:00</t>
+  </si>
+  <si>
+    <t>GS15719</t>
+  </si>
+  <si>
+    <t>VC2020</t>
   </si>
   <si>
     <t>INICIO DE RUTA</t>
   </si>
   <si>
-    <t>04/14/2024 17:38:17</t>
+    <t>04/27/2024 12:23:43</t>
+  </si>
+  <si>
+    <t>SEBASTIAN TRUJILLO</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>LLP991</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN</t>
+  </si>
+  <si>
+    <t>2024-04-27 12:21:00</t>
+  </si>
+  <si>
+    <t>2024-04-27 17:21:00</t>
+  </si>
+  <si>
+    <t>VIAJE EN VACIO</t>
+  </si>
+  <si>
+    <t>VC2019</t>
+  </si>
+  <si>
+    <t>FIN DE MOVIMIENTO VACíO</t>
+  </si>
+  <si>
+    <t>04/26/2024 16:37:57</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN PENDARE</t>
+  </si>
+  <si>
+    <t>2024-04-27 5:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-27 16:00:00</t>
+  </si>
+  <si>
+    <t>VACÍO</t>
+  </si>
+  <si>
+    <t>RUTA EN VACIO</t>
+  </si>
+  <si>
+    <t>VC2018</t>
+  </si>
+  <si>
+    <t>04/26/2024 14:20:55</t>
+  </si>
+  <si>
+    <t>TAR646</t>
+  </si>
+  <si>
+    <t>OASIS-HOTEL SAN MATEO</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO HOTEL VILLA JOHANA</t>
+  </si>
+  <si>
+    <t>2024-04-26 15:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-26 22:00:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO VACIO</t>
+  </si>
+  <si>
+    <t>VC2017</t>
+  </si>
+  <si>
+    <t>04/26/2024 14:17:12</t>
+  </si>
+  <si>
+    <t>TAR554</t>
+  </si>
+  <si>
+    <t>OASIS HOTEL SAN MATEO</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO VACIO, NO REQUIERE GV.</t>
+  </si>
+  <si>
+    <t>VC2016</t>
+  </si>
+  <si>
+    <t>GERENCIAMIENTO Y APROBACIóN</t>
+  </si>
+  <si>
+    <t>04/24/2024 17:43:01</t>
+  </si>
+  <si>
+    <t>VIGIA COORDINADOR</t>
+  </si>
+  <si>
+    <t>LJU138</t>
+  </si>
+  <si>
+    <t>SANTA MARTA</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA</t>
+  </si>
+  <si>
+    <t>2024-04-25 3:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-25 5:37:00</t>
+  </si>
+  <si>
+    <t>GS15654</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO</t>
+  </si>
+  <si>
+    <t>VC2015</t>
+  </si>
+  <si>
+    <t>CANCELAR VIAJE</t>
+  </si>
+  <si>
+    <t>04/24/2024 13:20:58</t>
   </si>
   <si>
     <t>ENTRAPETROL ENTRAPETROL</t>
   </si>
   <si>
-    <t>May-24</t>
-  </si>
-  <si>
-    <t>FVQ483</t>
-  </si>
-  <si>
-    <t>PUERTO GAITAN/ HOTEL SAN FERNANDO</t>
-  </si>
-  <si>
-    <t>MOSQUERA/ CENTRO INDUSTRIAL SAN JORGE</t>
-  </si>
-  <si>
-    <t>2024-04-15 6:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-15 14:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para revisión del vehículo y posterior entrega cuando lo soliciten</t>
-  </si>
-  <si>
-    <t>VC1979</t>
-  </si>
-  <si>
-    <t>FIN DE MOVIMIENTO VACíO</t>
-  </si>
-  <si>
-    <t>04/14/2024 17:03:23</t>
-  </si>
-  <si>
-    <t>FVQ494</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ HOTEL PUNTO COM</t>
+    <t>LHT624</t>
   </si>
   <si>
     <t>FUNZA/ HOTEL SPARTA</t>
   </si>
   <si>
-    <t>2024-04-15 10:00:00</t>
-  </si>
-  <si>
-    <t>VC1978</t>
-  </si>
-  <si>
-    <t>04/14/2024 16:58:44</t>
-  </si>
-  <si>
-    <t>FVQ491</t>
-  </si>
-  <si>
-    <t>YOPAL/ HOTEL DEMBEBR</t>
-  </si>
-  <si>
-    <t>FUNZA/ HOTEL SPATA</t>
-  </si>
-  <si>
-    <t>2024-04-15 16:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para revisión de vehículo y posterior entrega cuando soliciten</t>
-  </si>
-  <si>
-    <t>VC1977</t>
-  </si>
-  <si>
-    <t>04/13/2024 17:32:58</t>
-  </si>
-  <si>
-    <t>FVQ473</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ EL TRIUNFO</t>
-  </si>
-  <si>
-    <t>2024-04-14 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-14 16:00:00</t>
-  </si>
-  <si>
-    <t>GS15416</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio por cambio de fecha el día lunes 15 de abril</t>
-  </si>
-  <si>
-    <t>VC1976</t>
-  </si>
-  <si>
-    <t>04/13/2024 17:29:16</t>
-  </si>
-  <si>
-    <t>LHV946</t>
-  </si>
-  <si>
-    <t>BOSCONIA/ HOTEL BOSCONIA</t>
-  </si>
-  <si>
-    <t>BARRANCABERMEJA/ HOTEL BARRANCABERMEJA</t>
-  </si>
-  <si>
-    <t>2024-04-14 7:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-14 15:30:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en Barrancabermeja</t>
-  </si>
-  <si>
-    <t>VC1975</t>
-  </si>
-  <si>
-    <t>04/13/2024 12:45:14</t>
-  </si>
-  <si>
-    <t>BARRANQUILLA/ HOTEL INTERAMERICANO</t>
-  </si>
-  <si>
-    <t>BOSCNONIA</t>
-  </si>
-  <si>
-    <t>2024-04-13 13:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-13 18:00:00</t>
-  </si>
-  <si>
-    <t>VC1974</t>
-  </si>
-  <si>
-    <t>CANCELAR VIAJE</t>
-  </si>
-  <si>
-    <t>04/12/2024 16:07:07</t>
-  </si>
-  <si>
-    <t>VILLANUEVA/ HOTEL MAR LUZ PLAZA</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ PARQUEADERO EL SALITRE</t>
-  </si>
-  <si>
-    <t>2024-04-12 16:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-12 18:30:00</t>
-  </si>
-  <si>
-    <t>GS15372</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio el día de mañana en Villavicencio</t>
-  </si>
-  <si>
-    <t>VC1973</t>
-  </si>
-  <si>
-    <t>GERENCIAMIENTO Y APROBACIóN</t>
-  </si>
-  <si>
-    <t>04/12/2024 15:05:50</t>
-  </si>
-  <si>
-    <t>VILLANUEVA/ HOTEL COLTAN</t>
-  </si>
-  <si>
-    <t>2024-04-13 6:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-13 9:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para quedar disponible en Villavicencio</t>
-  </si>
-  <si>
-    <t>VC1972</t>
-  </si>
-  <si>
-    <t>04/11/2024 19:44:03</t>
-  </si>
-  <si>
-    <t>Apr-24</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ PARQUEADERO SALITRE</t>
-  </si>
-  <si>
-    <t>ACACíAS/ HOTEL ACACíAS</t>
-  </si>
-  <si>
-    <t>2024-04-12 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-12 2:00:00</t>
-  </si>
-  <si>
-    <t>GS15385</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en Acacías el día de mañana</t>
-  </si>
-  <si>
-    <t>VC1971</t>
-  </si>
-  <si>
-    <t>04/11/2024 19:36:48</t>
-  </si>
-  <si>
-    <t>LHR715</t>
-  </si>
-  <si>
-    <t>SOGAMOSO/ HOTEL SOGAMOSO</t>
-  </si>
-  <si>
-    <t>2024-04-12 6:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-12 10:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para quedar disponible en Bogotá</t>
-  </si>
-  <si>
-    <t>VC1970</t>
-  </si>
-  <si>
-    <t>04/11/2024 14:04:11</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO HOTEL</t>
-  </si>
-  <si>
-    <t>2024-04-11 14:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-11 18:00:00</t>
-  </si>
-  <si>
-    <t>GS15383</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO VACIO</t>
-  </si>
-  <si>
-    <t>VC1969</t>
-  </si>
-  <si>
-    <t>04/11/2024 13:59:01</t>
-  </si>
-  <si>
-    <t>DUITAMA HOTEL</t>
-  </si>
-  <si>
-    <t>2024-04-11 14:15:00</t>
-  </si>
-  <si>
-    <t>2024-04-11 19:00:00</t>
-  </si>
-  <si>
-    <t>GS15345</t>
-  </si>
-  <si>
-    <t>VC1968</t>
-  </si>
-  <si>
-    <t>04/11/2024 13:53:46</t>
-  </si>
-  <si>
-    <t>RUBIALES</t>
-  </si>
-  <si>
-    <t>GS15379</t>
-  </si>
-  <si>
-    <t>VC1967</t>
-  </si>
-  <si>
-    <t>04/11/2024 10:16:12</t>
-  </si>
-  <si>
-    <t>FVQ486</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO/ BARRIO EL TRIUNFO</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para subir a Bogotá a revisión y posterior cita a base cota</t>
-  </si>
-  <si>
-    <t>VC1966</t>
-  </si>
-  <si>
-    <t>04/10/2024 19:52:55</t>
-  </si>
-  <si>
-    <t>FVQ495</t>
-  </si>
-  <si>
-    <t>PUERTO BOYACá/ HOTEL MóNACO</t>
-  </si>
-  <si>
-    <t>2024-04-11 8:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-11 16:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para subir a Bogotá</t>
-  </si>
-  <si>
-    <t>VC1965</t>
-  </si>
-  <si>
-    <t>04/10/2024 11:47:02</t>
-  </si>
-  <si>
-    <t>PUERTO WILCHES/ HOTEL PUERTO WILCHES</t>
-  </si>
-  <si>
-    <t>2024-04-10 13:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-10 18:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para llegar a Bogotá el día de mañana</t>
-  </si>
-  <si>
-    <t>VC1964</t>
-  </si>
-  <si>
-    <t>04/09/2024 18:19:59</t>
-  </si>
-  <si>
-    <t>2024-04-10 6:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-10 14:00:00</t>
-  </si>
-  <si>
-    <t>GS15325</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir servicio en Villavicencio el 11 de abril</t>
+    <t>YOPAL/ HOTEL DEMBER</t>
+  </si>
+  <si>
+    <t>2024-04-25 6:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-25 14:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para entregar vehículo a al BL</t>
+  </si>
+  <si>
+    <t>VC2014</t>
+  </si>
+  <si>
+    <t>04/24/2024 13:16:54</t>
+  </si>
+  <si>
+    <t>LHT229</t>
+  </si>
+  <si>
+    <t>MOSQUERA/ CALLE19 A CON CALLE 10, PARQUEADERO 24H</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para entregar vehículo al BL</t>
+  </si>
+  <si>
+    <t>VC2013</t>
+  </si>
+  <si>
+    <t>04/23/2024 15:42:41</t>
+  </si>
+  <si>
+    <t>LHT626</t>
+  </si>
+  <si>
+    <t>SAN MARTIN/ HOTEL LAS MARIAS</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA/ PARQUEADERO EL COCO</t>
+  </si>
+  <si>
+    <t>2024-04-24 6:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-24 10:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para entregar vehículo al BL en Barrancabermeja</t>
+  </si>
+  <si>
+    <t>VC2012</t>
+  </si>
+  <si>
+    <t>04/22/2024 22:40:19</t>
+  </si>
+  <si>
+    <t>BOGOTA- CRA 21 65 37</t>
+  </si>
+  <si>
+    <t>2024-04-23 4:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-23 21:00:00</t>
+  </si>
+  <si>
+    <t>GS15516</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO VACIO. NO REQUIERE GV,</t>
+  </si>
+  <si>
+    <t>VC2011</t>
+  </si>
+  <si>
+    <t>04/22/2024 22:36:19</t>
+  </si>
+  <si>
+    <t>BOGOTA-CRA 21 65 37</t>
+  </si>
+  <si>
+    <t>GS15515</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO VACIO.NO REQUIERE GV</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +929,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:FZ19"/>
+  <dimension ref="A1:FZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,9 +958,9 @@
     <col min="19" max="19" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="43.560791" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="45.845947" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -1115,7 +989,7 @@
     <col min="50" max="50" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="51" max="51" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="52" max="52" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="102.546387" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="80.12329099999999" bestFit="true" customWidth="true" style="0"/>
     <col min="54" max="54" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="55" max="55" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="56" max="56" width="22.280273" bestFit="true" customWidth="true" style="0"/>
@@ -1534,57 +1408,59 @@
       <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S2">
-        <v>803985</v>
+        <v>724258</v>
       </c>
       <c r="T2">
-        <v>1900104000</v>
+        <v>1900091583</v>
       </c>
       <c r="U2" t="s">
         <v>97</v>
       </c>
       <c r="V2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y2" t="s">
         <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB2">
         <v>600000</v>
       </c>
       <c r="AZ2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:182">
@@ -1607,28 +1483,28 @@
         <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S3">
-        <v>634727</v>
+        <v>723169</v>
       </c>
       <c r="T3">
-        <v>1900097894</v>
+        <v>1900101062</v>
       </c>
       <c r="U3" t="s">
         <v>113</v>
@@ -1637,36 +1513,36 @@
         <v>116</v>
       </c>
       <c r="W3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y3" t="s">
         <v>112</v>
       </c>
       <c r="Z3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" t="s">
         <v>118</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>119</v>
       </c>
       <c r="AB3">
         <v>600000</v>
       </c>
-      <c r="AZ3">
-        <v>0</v>
+      <c r="AZ3" t="s">
+        <v>100</v>
       </c>
       <c r="BA3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:182">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
@@ -1675,342 +1551,330 @@
         <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S4">
-        <v>527758</v>
+        <v>745507</v>
       </c>
       <c r="T4">
-        <v>1900077787</v>
+        <v>1900099496</v>
       </c>
       <c r="U4" t="s">
         <v>113</v>
       </c>
       <c r="V4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" t="s">
         <v>125</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>126</v>
-      </c>
-      <c r="X4">
-        <v>129.78</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>127</v>
       </c>
       <c r="AB4">
         <v>600000</v>
       </c>
-      <c r="AZ4">
-        <v>0</v>
+      <c r="AZ4" t="s">
+        <v>127</v>
       </c>
       <c r="BA4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:182">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5">
+        <v>528223</v>
+      </c>
+      <c r="T5">
+        <v>1900043756</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y5" t="s">
         <v>130</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R5" t="s">
-        <v>103</v>
-      </c>
-      <c r="S5">
-        <v>641713</v>
-      </c>
-      <c r="T5">
-        <v>1900097893</v>
-      </c>
-      <c r="U5" t="s">
-        <v>113</v>
-      </c>
-      <c r="V5" t="s">
-        <v>131</v>
-      </c>
-      <c r="W5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>129</v>
-      </c>
       <c r="Z5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AA5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB5">
         <v>600000</v>
       </c>
-      <c r="AZ5">
-        <v>0</v>
+      <c r="AZ5" t="s">
+        <v>100</v>
       </c>
       <c r="BA5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:182">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6">
+        <v>776957</v>
+      </c>
+      <c r="T6">
+        <v>1900096338</v>
+      </c>
+      <c r="U6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" t="s">
-        <v>103</v>
-      </c>
-      <c r="S6">
-        <v>744311</v>
-      </c>
-      <c r="T6">
-        <v>1900066658</v>
-      </c>
-      <c r="U6" t="s">
-        <v>113</v>
-      </c>
-      <c r="V6" t="s">
-        <v>138</v>
-      </c>
-      <c r="W6" t="s">
-        <v>126</v>
-      </c>
-      <c r="X6">
-        <v>117.64</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>140</v>
       </c>
       <c r="AB6">
         <v>600000</v>
       </c>
       <c r="AZ6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA6" t="s">
         <v>141</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:182">
       <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
       </c>
       <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7">
+        <v>701831</v>
+      </c>
+      <c r="T7">
+        <v>1900099449</v>
+      </c>
+      <c r="U7" t="s">
         <v>145</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" t="s">
-        <v>103</v>
-      </c>
-      <c r="S7">
-        <v>537872</v>
-      </c>
-      <c r="T7">
-        <v>1900048161</v>
-      </c>
-      <c r="U7" t="s">
-        <v>113</v>
-      </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y7" t="s">
         <v>144</v>
       </c>
       <c r="Z7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB7">
         <v>600000</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
+      <c r="AZ7" t="s">
+        <v>151</v>
       </c>
       <c r="BA7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:182">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S8">
-        <v>537872</v>
+        <v>526543</v>
       </c>
       <c r="T8">
-        <v>1900048161</v>
+        <v>1900072006</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="V8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="W8" t="s">
-        <v>154</v>
-      </c>
-      <c r="X8">
-        <v>195.6</v>
+        <v>159</v>
       </c>
       <c r="Y8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Z8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AB8">
         <v>600000</v>
@@ -2019,137 +1883,143 @@
         <v>0</v>
       </c>
       <c r="BA8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:182">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9">
+        <v>526817</v>
+      </c>
+      <c r="T9">
+        <v>1900069315</v>
+      </c>
+      <c r="U9" t="s">
+        <v>156</v>
+      </c>
+      <c r="V9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" t="s">
         <v>159</v>
       </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9">
-        <v>634727</v>
-      </c>
-      <c r="T9">
-        <v>1900097894</v>
-      </c>
-      <c r="U9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z9" t="s">
         <v>160</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AA9" t="s">
         <v>161</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>163</v>
       </c>
       <c r="AB9">
         <v>600000</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>164</v>
+      <c r="AZ9">
+        <v>0</v>
       </c>
       <c r="BA9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:182">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S10">
-        <v>527788</v>
+        <v>526885</v>
       </c>
       <c r="T10">
-        <v>1900073461</v>
+        <v>1900054529</v>
       </c>
       <c r="U10" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>172</v>
+      </c>
+      <c r="X10">
+        <v>157.02</v>
+      </c>
+      <c r="Y10" t="s">
         <v>169</v>
       </c>
-      <c r="W10" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>168</v>
-      </c>
       <c r="Z10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB10">
         <v>600000</v>
@@ -2158,649 +2028,143 @@
         <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:182">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S11">
-        <v>634727</v>
+        <v>724258</v>
       </c>
       <c r="T11">
-        <v>1900097894</v>
+        <v>1900091583</v>
       </c>
       <c r="U11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="V11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
         <v>177</v>
       </c>
-      <c r="X11">
-        <v>64.76000000000001</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>174</v>
-      </c>
       <c r="Z11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB11">
         <v>600000</v>
       </c>
       <c r="AZ11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BA11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:182">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S12">
-        <v>527051</v>
+        <v>776957</v>
       </c>
       <c r="T12">
-        <v>1900022149</v>
+        <v>1900096338</v>
       </c>
       <c r="U12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="V12" t="s">
         <v>185</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12">
-        <v>4.5</v>
+        <v>105</v>
       </c>
       <c r="Y12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AA12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AB12">
         <v>600000</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
+      <c r="AZ12" t="s">
+        <v>186</v>
       </c>
       <c r="BA12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:182">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13"/>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R13" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13">
-        <v>528206</v>
-      </c>
-      <c r="T13">
-        <v>1900008601</v>
-      </c>
-      <c r="U13" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" t="s">
-        <v>104</v>
-      </c>
-      <c r="W13" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB13">
-        <v>600000</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:182">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14"/>
-      <c r="J14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>102</v>
-      </c>
-      <c r="R14" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14">
-        <v>803985</v>
-      </c>
-      <c r="T14">
-        <v>1900104000</v>
-      </c>
-      <c r="U14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" t="s">
-        <v>104</v>
-      </c>
-      <c r="W14" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB14">
-        <v>600000</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:182">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15"/>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15">
-        <v>776971</v>
-      </c>
-      <c r="T15">
-        <v>1900048012</v>
-      </c>
-      <c r="U15" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" t="s">
-        <v>104</v>
-      </c>
-      <c r="W15" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB15">
-        <v>600000</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:182">
-      <c r="A16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16">
-        <v>744311</v>
-      </c>
-      <c r="T16">
-        <v>1900066658</v>
-      </c>
-      <c r="U16" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" t="s">
-        <v>209</v>
-      </c>
-      <c r="W16" t="s">
-        <v>126</v>
-      </c>
-      <c r="X16">
-        <v>131.88</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA16" t="s">
         <v>187</v>
-      </c>
-      <c r="AB16">
-        <v>600000</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:182">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" t="s">
-        <v>103</v>
-      </c>
-      <c r="S17">
-        <v>526572</v>
-      </c>
-      <c r="T17">
-        <v>1900022660</v>
-      </c>
-      <c r="U17" t="s">
-        <v>113</v>
-      </c>
-      <c r="V17" t="s">
-        <v>214</v>
-      </c>
-      <c r="W17" t="s">
-        <v>126</v>
-      </c>
-      <c r="X17">
-        <v>149.96</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB17">
-        <v>600000</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:182">
-      <c r="A18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" t="s">
-        <v>100</v>
-      </c>
-      <c r="O18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S18">
-        <v>526572</v>
-      </c>
-      <c r="T18">
-        <v>1900022660</v>
-      </c>
-      <c r="U18" t="s">
-        <v>113</v>
-      </c>
-      <c r="V18" t="s">
-        <v>220</v>
-      </c>
-      <c r="W18" t="s">
-        <v>214</v>
-      </c>
-      <c r="X18">
-        <v>259.78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB18">
-        <v>600000</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:182">
-      <c r="A19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>102</v>
-      </c>
-      <c r="R19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S19">
-        <v>641713</v>
-      </c>
-      <c r="T19">
-        <v>1900097893</v>
-      </c>
-      <c r="U19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V19" t="s">
-        <v>185</v>
-      </c>
-      <c r="W19" t="s">
-        <v>125</v>
-      </c>
-      <c r="X19">
-        <v>354.59</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB19">
-        <v>600000</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
